--- a/data/trans_dic/P16B15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>98,45; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>97,58; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>96,75; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>96,9; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>98,34; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>97,05; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>98,13; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>98,64; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>97,92; 99,75</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>86,87; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>98,12; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>93,34; 99,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>89,78; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>97,58; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>98,23; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>92,81; 99,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>98,93; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>95,79; 99,6</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>79,37; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>84,9; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>95,99; 99,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>98,82; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>96,62; 99,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>97,33; 99,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>97,58; 99,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>99,08; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>97,99; 99,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,42 +691,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,58; 100,0</t>
+          <t>97,65; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,75; 100,0</t>
+          <t>96,82; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,9; 100,0</t>
+          <t>97,31; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,34; 100,0</t>
+          <t>98,43; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,05; 100,0</t>
+          <t>97,4; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,13; 100,0</t>
+          <t>98,04; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,64; 100,0</t>
+          <t>98,79; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>97,92; 99,75</t>
+          <t>97,95; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,87; 100,0</t>
+          <t>85,95; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,12 +806,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,34; 99,24</t>
+          <t>93,13; 99,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,78; 100,0</t>
+          <t>91,58; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,81; 99,21</t>
+          <t>92,06; 99,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,79; 99,6</t>
+          <t>96,39; 99,6</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,37; 100,0</t>
+          <t>75,4; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,9; 100,0</t>
+          <t>86,19; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,56</t>
+          <t>95,24; 99,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,82; 100,0</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,62; 99,67</t>
+          <t>96,55; 99,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,68</t>
+          <t>97,11; 99,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,37; 100,0</t>
+          <t>98,1; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,5</t>
+          <t>97,38; 99,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>99,08; 100,0</t>
+          <t>99,07; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,99; 99,65</t>
+          <t>98,0; 99,57</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para bajar el colesterol fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>116707</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>203677</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>149137</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>200965</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>325296</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>234942</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>317672</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>528973</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>384079</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>114902; 116707</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>199884; 204684</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>145329; 150101</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>197308; 202758</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>321233; 326373</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>230767; 236935</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>313193; 319465</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>524637; 531056</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>379109; 387036</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51656</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>115055</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>128922</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51676</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91693</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>121892</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103333</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>206748</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>250814</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46227; 53782</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>112893; 115055</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>123218; 131304</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>48120; 52543</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>89470; 91693</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>119728; 121892</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>97882; 105468</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>204544; 206748</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>245029; 253191</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19327</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30383</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26641</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11462</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16457</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15441</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30788</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46840</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42082</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15202; 20161</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28158; 30383</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24613; 26641</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9664; 11462</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14382; 16457</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13201; 15441</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27254; 31622</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44603; 46840</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39910; 42082</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>187689</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>349115</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>304701</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>264102</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>433446</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>372275</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>451793</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>782561</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>676975</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>181581; 189808</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>345036; 350122</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>298391; 308028</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>259058; 265905</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>429140; 434523</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>367144; 374268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>445413; 454825</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>777349; 784644</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>669689; 680356</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>